--- a/ExcelToCs/配置/杂项配置表.xlsx
+++ b/ExcelToCs/配置/杂项配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC651172-E724-4686-BED3-472B7E466503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4860B74-A3A9-4814-BEB6-0A325622E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#GameIntParam" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>植物默认出站卡槽数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售道具按原价70%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,6 +522,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/杂项配置表.xlsx
+++ b/ExcelToCs/配置/杂项配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4860B74-A3A9-4814-BEB6-0A325622E221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE30DB-C3BD-41CF-9276-17E7D4C644F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1995" windowWidth="33000" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#GameIntParam" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -84,6 +84,22 @@
   </si>
   <si>
     <t>出售道具按原价70%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedCardDefaultTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部植物花园掉落植物卡片的循环时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedCardReduceTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每种一颗植物减少循环时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -145,9 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,6 +553,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelToCs/配置/杂项配置表.xlsx
+++ b/ExcelToCs/配置/杂项配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE30DB-C3BD-41CF-9276-17E7D4C644F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177BA5EB-1EB0-48C0-9A5E-F0049ADA74F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>每种一颗植物减少循环时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombieDieBeforeNoBlue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombieDieBeforeNoPurple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombieDieBeforeNoRed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他模式前多少僵尸死亡不出蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他模式前多少僵尸死亡不出紫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他模式前多少僵尸死亡不出红</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,7 +581,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7">
@@ -571,7 +595,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8">
@@ -579,6 +603,39 @@
       </c>
       <c r="D8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
